--- a/printers.xlsx
+++ b/printers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">IP</t>
   </si>
@@ -31,31 +31,25 @@
     <t xml:space="preserve">scan_code</t>
   </si>
   <si>
+    <t xml:space="preserve">vender</t>
+  </si>
+  <si>
     <t xml:space="preserve">username</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.100.200</t>
+    <t xml:space="preserve">192.168.100.4</t>
   </si>
   <si>
-    <t xml:space="preserve">M426fdn</t>
+    <t xml:space="preserve">4830df</t>
   </si>
   <si>
     <t xml:space="preserve">A001</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.100.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.100.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.100.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.100.12</t>
+    <t xml:space="preserve">FUJI</t>
   </si>
 </sst>
 </file>
@@ -187,10 +181,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -198,10 +192,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.33"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="6" style="1" width="9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="28" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="7" style="1" width="9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="29" style="1" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -214,92 +208,37 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/printers.xlsx
+++ b/printers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">IP</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.100.4</t>
+    <t xml:space="preserve">192.168.100.41</t>
   </si>
   <si>
     <t xml:space="preserve">4830df</t>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t xml:space="preserve">FUJI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.100.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP</t>
   </si>
 </sst>
 </file>
@@ -184,7 +196,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:D9"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -231,8 +243,24 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
